--- a/works/docs/数据端配置工具.xlsx
+++ b/works/docs/数据端配置工具.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>param_name</t>
   </si>
@@ -151,9 +151,6 @@
     <t>第二个Topic</t>
   </si>
   <si>
-    <t>spark_kafka_demo</t>
-  </si>
-  <si>
     <t>2c</t>
   </si>
   <si>
@@ -217,28 +214,61 @@
     <t>yyyy-MM-dd HH:mm:ss</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>A1A</t>
-  </si>
-  <si>
-    <t>A2A</t>
-  </si>
-  <si>
     <t>类型1</t>
   </si>
   <si>
     <t>类型2</t>
+  </si>
+  <si>
+    <t>kafka_spark_demo</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>类型3</t>
+  </si>
+  <si>
+    <t>类型5</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>类型4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
 </sst>
 </file>
@@ -792,14 +822,14 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
       <c r="F2" t="str">
         <f>"insert into bfb_t_topic_table_list values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "');"</f>
-        <v>insert into bfb_t_topic_table_list values ('demo_topic_1','第一个Topic','spark_kafka_demo','2c');</v>
+        <v>insert into bfb_t_topic_table_list values ('demo_topic_1','第一个Topic','kafka_spark_demo','2c');</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,14 +840,14 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="str">
         <f>"insert into bfb_t_topic_table_list values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "');"</f>
-        <v>insert into bfb_t_topic_table_list values ('demo_topic_2','第二个Topic','spark_kafka_demo','7c');</v>
+        <v>insert into bfb_t_topic_table_list values ('demo_topic_2','第二个Topic','kafka_spark_demo','7c');</v>
       </c>
     </row>
   </sheetData>
@@ -873,152 +903,152 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" t="str">
         <f>"insert into bfb_t_table_column_list values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "','" &amp; E2 &amp; "','" &amp; F2 &amp; "','" &amp; G2 &amp; "');"</f>
-        <v>insert into bfb_t_table_column_list values ('spark_kafka_demo','演示表','op_date','操作日期','date','1','yyyy-MM-dd');</v>
+        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_date','操作日期','date','1','yyyy-MM-dd');</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I7" si="0">"insert into bfb_t_table_column_list values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "','" &amp; E3 &amp; "','" &amp; F3 &amp; "','" &amp; G3 &amp; "');"</f>
-        <v>insert into bfb_t_table_column_list values ('spark_kafka_demo','演示表','op_time','操作时间','datetime','2','yyyy-MM-dd HH:mm:ss');</v>
+        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_time','操作时间','datetime','2','yyyy-MM-dd HH:mm:ss');</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('spark_kafka_demo','演示表','op_source','操作源','string','3','');</v>
+        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_source','操作源','string','3','');</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('spark_kafka_demo','演示表','op_type','操作类型','string','4','');</v>
+        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_type','操作类型','string','4','');</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('spark_kafka_demo','演示表','op_count','操作数量','int','5','');</v>
+        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_count','操作数量','int','5','');</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('spark_kafka_demo','演示表','op_total','操作总数','int','6','');</v>
+        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_total','操作总数','int','6','');</v>
       </c>
     </row>
   </sheetData>
@@ -1029,11 +1059,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,23 +1104,23 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H2" t="str">
         <f>"insert into bfb_t_topic_code_mapping values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "','" &amp; E2 &amp; "','" &amp; F2 &amp; "');"</f>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','A1','类型1','A1A','类型1');</v>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','T1','类型1','E1','类型1');</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,47 +1128,47 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H5" si="0">"insert into bfb_t_topic_code_mapping values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "','" &amp; E3 &amp; "','" &amp; F3 &amp; "');"</f>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','A2','类型2','A2A','类型2');</v>
+        <f t="shared" ref="H3:H9" si="0">"insert into bfb_t_topic_code_mapping values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "','" &amp; E3 &amp; "','" &amp; F3 &amp; "');"</f>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','T2','类型2','E3','类型3');</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','a1','类型1','A1A','类型1');</v>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','T3','类型3','E5','类型5');</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,23 +1176,119 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J1','类型1','E1','类型1');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J2','类型2','E2','类型2');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','a2','类型2','A2A','类型2');</v>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J3','类型3','E3','类型3');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J4','类型4','E4','类型4');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J5','类型5','E5','类型5');</v>
       </c>
     </row>
   </sheetData>

--- a/works/docs/数据端配置工具.xlsx
+++ b/works/docs/数据端配置工具.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="bfb_t_param_config_list" sheetId="1" r:id="rId1"/>
-    <sheet name="bfb_t_topic_table_list" sheetId="2" r:id="rId2"/>
-    <sheet name="bfb_t_table_column_list" sheetId="3" r:id="rId3"/>
-    <sheet name="bfb_t_topic_code_mapping" sheetId="4" r:id="rId4"/>
+    <sheet name="app_t_param_config_list" sheetId="1" r:id="rId1"/>
+    <sheet name="app_t_topic_table_list" sheetId="2" r:id="rId2"/>
+    <sheet name="app_t_table_column_list" sheetId="3" r:id="rId3"/>
+    <sheet name="app_t_topic_code_mapping" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bfb_t_param_config_list!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">bfb_t_table_column_list!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">bfb_t_topic_code_mapping!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bfb_t_topic_table_list!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">app_t_param_config_list!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">app_t_table_column_list!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">app_t_topic_code_mapping!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">app_t_topic_table_list!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
   <si>
     <t>param_name</t>
   </si>
@@ -136,9 +136,6 @@
     <t>com.service.data.spark.streaming.process.DefaultJsonProcess</t>
   </si>
   <si>
-    <t>插入语句</t>
-  </si>
-  <si>
     <t>demo_topic_1</t>
   </si>
   <si>
@@ -269,17 +266,114 @@
   </si>
   <si>
     <t>J5</t>
+  </si>
+  <si>
+    <t>delete from app_t_topic_table_list;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into app_t_topic_table_list(topic_name,topic_desc,table_name,field_split) values ('demo_topic_1','第一个Topic','kafka_spark_demo','2c');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_table_list(topic_name,topic_desc,table_name,field_split) values ('demo_topic_2','第二个Topic','kafka_spark_demo','7c');</t>
+  </si>
+  <si>
+    <t>delete from app_t_table_column_list;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into app_t_table_column_list(table_name,table_desc,column_name,column_desc,column_type,column_index,column_data) values ('kafka_spark_demo','演示表','op_date','操作日期','date','1','yyyy-MM-dd');</t>
+  </si>
+  <si>
+    <t>insert into app_t_table_column_list(table_name,table_desc,column_name,column_desc,column_type,column_index,column_data) values ('kafka_spark_demo','演示表','op_time','操作时间','datetime','2','yyyy-MM-dd HH:mm:ss');</t>
+  </si>
+  <si>
+    <t>insert into app_t_table_column_list(table_name,table_desc,column_name,column_desc,column_type,column_index,column_data) values ('kafka_spark_demo','演示表','op_source','操作源','string','3',null);</t>
+  </si>
+  <si>
+    <t>insert into app_t_table_column_list(table_name,table_desc,column_name,column_desc,column_type,column_index,column_data) values ('kafka_spark_demo','演示表','op_type','操作类型','string','4',null);</t>
+  </si>
+  <si>
+    <t>insert into app_t_table_column_list(table_name,table_desc,column_name,column_desc,column_type,column_index,column_data) values ('kafka_spark_demo','演示表','op_count','操作数量','int','5',null);</t>
+  </si>
+  <si>
+    <t>insert into app_t_table_column_list(table_name,table_desc,column_name,column_desc,column_type,column_index,column_data) values ('kafka_spark_demo','演示表','op_total','操作总数','int','6',null);</t>
+  </si>
+  <si>
+    <t>delete from app_t_topic_code_mapping;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_1','op_type','T1','类型1','E1','类型1');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_1','op_type','T2','类型2','E3','类型3');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_1','op_type','T3','类型3','E5','类型5');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_2','op_type','J1','类型1','E1','类型1');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_2','op_type','J2','类型2','E2','类型2');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_2','op_type','J3','类型3','E3','类型3');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_2','op_type','J4','类型4','E4','类型4');</t>
+  </si>
+  <si>
+    <t>insert into app_t_topic_code_mapping(topic_name,column_name,source_code,source_code_desc,target_code,target_code_desc) values ('demo_topic_2','op_type','J5','类型5','E5','类型5');</t>
+  </si>
+  <si>
+    <t>delete from app_t_param_config_list;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('kafka.bootstrap.servers','20.0.0.29:21005,20.0.0.30:21005,20.0.0.31:21005,20.0.0.32:21005,20.0.0.33:21005');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('kafka.application.id','KafkaStreamsTopicFilter');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('kafka.group1.source.topic','log1');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('kafka.group1.regex.string','(.*)to_log2(.*)');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('kafka.group1.target.topic','log2');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('spark.streaming.application.name','SparkStreamingKafkaToDatabase');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('spark.streaming.batch.duration','5');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('spark.streaming.checkpoint.dir','nocp');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('kafka.consumer.topics','demo_topic_1,demo_topic_2');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('spark.demo_topic_1.process.class','com.service.data.spark.streaming.process.DefaultTextProcess');</t>
+  </si>
+  <si>
+    <t>insert into app_t_param_config_list(param_name,param_value) values ('spark.demo_topic_2.process.class','com.service.data.spark.streaming.process.DefaultJsonProcess');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,8 +381,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,6 +426,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -373,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,16 +725,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,143 +742,133 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="str">
-        <f>"insert into bfb_t_param_config_list values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
-        <v>insert into bfb_t_param_config_list values ('kafka.bootstrap.servers','20.0.0.29:21005,20.0.0.30:21005,20.0.0.31:21005,20.0.0.32:21005,20.0.0.33:21005');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D12" si="0">"insert into bfb_t_param_config_list values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
-        <v>insert into bfb_t_param_config_list values ('kafka.application.id','KafkaStreamsTopicFilter');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('kafka.group1.source.topic','log1');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('kafka.group1.regex.string','(.*)to_log2(.*)');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('kafka.group1.target.topic','log2');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('spark.streaming.application.name','SparkStreamingKafkaToDatabase');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('spark.streaming.batch.duration','5');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('spark.streaming.checkpoint.dir','nocp');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('kafka.consumer.topics','demo_topic_1,demo_topic_2');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('spark.demo_topic_1.process.class','com.service.data.spark.streaming.process.DefaultTextProcess');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_param_config_list values ('spark.demo_topic_2.process.class','com.service.data.spark.streaming.process.DefaultJsonProcess');</v>
+      <c r="D12" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -786,18 +880,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,48 +905,48 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="str">
-        <f>"insert into bfb_t_topic_table_list values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "');"</f>
-        <v>insert into bfb_t_topic_table_list values ('demo_topic_1','第一个Topic','kafka_spark_demo','2c');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="str">
-        <f>"insert into bfb_t_topic_table_list values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "');"</f>
-        <v>insert into bfb_t_topic_table_list values ('demo_topic_2','第二个Topic','kafka_spark_demo','7c');</v>
+      <c r="F3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -862,20 +956,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,162 +992,158 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" t="str">
-        <f>"insert into bfb_t_table_column_list values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "','" &amp; E2 &amp; "','" &amp; F2 &amp; "','" &amp; G2 &amp; "');"</f>
-        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_date','操作日期','date','1','yyyy-MM-dd');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I7" si="0">"insert into bfb_t_table_column_list values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "','" &amp; E3 &amp; "','" &amp; F3 &amp; "','" &amp; G3 &amp; "');"</f>
-        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_time','操作时间','datetime','2','yyyy-MM-dd HH:mm:ss');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_source','操作源','string','3','');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_type','操作类型','string','4','');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_count','操作数量','int','5','');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_table_column_list values ('kafka_spark_demo','演示表','op_total','操作总数','int','6','');</v>
+      <c r="I7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1066,17 +1156,17 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1096,203 +1186,196 @@
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="str">
-        <f>"insert into bfb_t_topic_code_mapping values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "','" &amp; E2 &amp; "','" &amp; F2 &amp; "');"</f>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','T1','类型1','E1','类型1');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H9" si="0">"insert into bfb_t_topic_code_mapping values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "','" &amp; E3 &amp; "','" &amp; F3 &amp; "');"</f>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','T2','类型2','E3','类型3');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_1','op_type','T3','类型3','E5','类型5');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J1','类型1','E1','类型1');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J2','类型2','E2','类型2');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J3','类型3','E3','类型3');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J4','类型4','E4','类型4');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into bfb_t_topic_code_mapping values ('demo_topic_2','op_type','J5','类型5','E5','类型5');</v>
+      <c r="H9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>